--- a/Project Input Data.xlsx
+++ b/Project Input Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I488818\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCD2BE0-0B36-4883-B499-F476E7D4E702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B6CE1-DE9A-4F5C-8088-E90A6040AD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Promotion</t>
+  </si>
+  <si>
+    <t>brand_consideration</t>
   </si>
 </sst>
 </file>
@@ -390,30 +393,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L162"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,37 +423,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -459,37 +464,40 @@
         <v>4182</v>
       </c>
       <c r="C2">
+        <v>63.317578156585256</v>
+      </c>
+      <c r="D2">
         <v>49</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3501804</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>152181</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>4049</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1951.0000000000002</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44569</v>
       </c>
@@ -497,37 +505,40 @@
         <v>5167.5</v>
       </c>
       <c r="C3">
+        <v>63.166594342390454</v>
+      </c>
+      <c r="D3">
         <v>1061</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2896152</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>167009.99999999997</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>697.99999999999989</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4497</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1914.0000000000005</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>6</v>
       </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
       <c r="L3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44576</v>
       </c>
@@ -535,37 +546,40 @@
         <v>6229</v>
       </c>
       <c r="C4">
+        <v>62.669525720645836</v>
+      </c>
+      <c r="D4">
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2214402.9999999995</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>179189.00000000003</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>274.28571428571433</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>353.00000000000006</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5787</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4801.0000000000009</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>7</v>
       </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
       <c r="L4">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44583</v>
       </c>
@@ -573,37 +587,40 @@
         <v>7801.5</v>
       </c>
       <c r="C5">
+        <v>62.840967019854943</v>
+      </c>
+      <c r="D5">
         <v>3088.0000000000005</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2567240.9999999995</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>209858.99999999997</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1919.9999999999998</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>58</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>7032</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5925</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>7</v>
       </c>
-      <c r="K5">
-        <v>14</v>
-      </c>
       <c r="L5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44590</v>
       </c>
@@ -611,37 +628,40 @@
         <v>9505</v>
       </c>
       <c r="C6">
+        <v>62.845102625483555</v>
+      </c>
+      <c r="D6">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3721506.9999999995</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>214966.99999999997</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1919.9999999999998</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>88</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6943</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>13061</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>7</v>
       </c>
-      <c r="K6">
-        <v>14</v>
-      </c>
       <c r="L6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44597</v>
       </c>
@@ -649,37 +669,40 @@
         <v>9369.5</v>
       </c>
       <c r="C7">
+        <v>63.070825561572313</v>
+      </c>
+      <c r="D7">
         <v>2.9999999999999996</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2962649.0000000005</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>195181</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1919.9999999999998</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>23.999999999999996</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>6750</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>11349.999999999998</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>7</v>
       </c>
-      <c r="K7">
-        <v>14</v>
-      </c>
       <c r="L7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44604</v>
       </c>
@@ -687,37 +710,40 @@
         <v>8097.5</v>
       </c>
       <c r="C8">
+        <v>62.880974635367203</v>
+      </c>
+      <c r="D8">
         <v>7.9999999999999982</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>178741.00000000003</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1645.7142857142856</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>5765</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>10644.000000000002</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="K8">
-        <v>14</v>
-      </c>
       <c r="L8">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44611</v>
       </c>
@@ -725,37 +751,40 @@
         <v>6998</v>
       </c>
       <c r="C9">
+        <v>62.3096474755584</v>
+      </c>
+      <c r="D9">
         <v>25.000000000000004</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>161906.00000000003</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>5377</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>28236.999999999996</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>7</v>
       </c>
-      <c r="K9">
-        <v>14</v>
-      </c>
       <c r="L9">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44618</v>
       </c>
@@ -763,37 +792,40 @@
         <v>6876.5</v>
       </c>
       <c r="C10">
+        <v>63.127165428671617</v>
+      </c>
+      <c r="D10">
         <v>1029</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5248826</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>169391.99999999997</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>5551</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>9541</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>7</v>
       </c>
-      <c r="K10">
-        <v>14</v>
-      </c>
       <c r="L10">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44625</v>
       </c>
@@ -801,37 +833,40 @@
         <v>7117</v>
       </c>
       <c r="C11">
+        <v>62.645286845007213</v>
+      </c>
+      <c r="D11">
         <v>9066.9999999999982</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>3581767.0000000005</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>197356</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>3008</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6426</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>7</v>
       </c>
-      <c r="K11">
-        <v>14</v>
-      </c>
       <c r="L11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44632</v>
       </c>
@@ -839,37 +874,40 @@
         <v>6581</v>
       </c>
       <c r="C12">
+        <v>62.601752129803245</v>
+      </c>
+      <c r="D12">
         <v>310</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3321122</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>206683.00000000003</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>535</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>6365.0000000000009</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>7</v>
       </c>
-      <c r="K12">
-        <v>14</v>
-      </c>
       <c r="L12">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44639</v>
       </c>
@@ -877,37 +915,40 @@
         <v>5451</v>
       </c>
       <c r="C13">
+        <v>62.727195492448679</v>
+      </c>
+      <c r="D13">
         <v>241.99999999999994</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1987648</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>197381</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>535</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>6050.0000000000009</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44646</v>
       </c>
@@ -915,37 +956,40 @@
         <v>4816.5</v>
       </c>
       <c r="C14">
+        <v>62.39681263617701</v>
+      </c>
+      <c r="D14">
         <v>9665.0000000000018</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1160709.0000000002</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>193518.99999999997</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>479</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5548</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44653</v>
       </c>
@@ -953,37 +997,40 @@
         <v>5097</v>
       </c>
       <c r="C15">
+        <v>62.003183869345399</v>
+      </c>
+      <c r="D15">
         <v>0.99999999999999978</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2176438</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>199022.99999999997</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>570</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4865</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44660</v>
       </c>
@@ -991,37 +1038,40 @@
         <v>5611</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>62.081339014046996</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>1712532.9999999998</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>206823.00000000003</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>512</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5663.9999999999991</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44667</v>
       </c>
@@ -1029,37 +1079,40 @@
         <v>4853</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>62.528274620461147</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>1424444</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>186103.00000000003</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>457</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>5275.9999999999991</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44674</v>
       </c>
@@ -1067,37 +1120,40 @@
         <v>3869</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>62.698465597302054</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>1186353</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>197517</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>449</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>4878.0000000000009</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44681</v>
       </c>
@@ -1105,37 +1161,40 @@
         <v>3597</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>61.842940915399069</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>1898427.9999999995</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>192113.99999999997</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>385</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5210.0000000000009</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44688</v>
       </c>
@@ -1143,37 +1202,40 @@
         <v>4163</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>62.435490258338476</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>1877373</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>210570.99999999997</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>501</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4918.9999999999991</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L20">
+        <v>14</v>
+      </c>
+      <c r="M20">
         <v>14.285714285714288</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44695</v>
       </c>
@@ -1181,37 +1243,40 @@
         <v>4940</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>61.784750987753974</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>2168073</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>235095.99999999994</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>500</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4773.0000000000009</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L21">
+        <v>14</v>
+      </c>
+      <c r="M21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44702</v>
       </c>
@@ -1219,37 +1284,40 @@
         <v>5194</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>61.890631093627043</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>2889250</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>335926</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>4166</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>5191.9999999999991</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1</v>
       </c>
-      <c r="K22">
-        <v>14</v>
-      </c>
       <c r="L22">
+        <v>14</v>
+      </c>
+      <c r="M22">
         <v>14.714285714285712</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44709</v>
       </c>
@@ -1257,37 +1325,40 @@
         <v>5118</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>62.153808324885944</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>3032714</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>448951.00000000006</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>4308</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>5037.9999999999991</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="K23">
-        <v>14</v>
-      </c>
       <c r="L23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44716</v>
       </c>
@@ -1295,37 +1366,40 @@
         <v>4727.5</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>61.973912520080518</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>5838993</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>231301</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>4140</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3990.9999999999991</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44723</v>
       </c>
@@ -1333,37 +1407,40 @@
         <v>4190</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>62.411331907399664</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>2260317</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>250169.00000000003</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>3803</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4245</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44730</v>
       </c>
@@ -1371,37 +1448,40 @@
         <v>3710</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>61.522334306918722</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>1485845.0000000002</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>195889.00000000003</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>3870</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2586.0000000000005</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44737</v>
       </c>
@@ -1409,37 +1489,40 @@
         <v>3684</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>62.149816170359969</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>507110</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>167870.99999999997</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>4144</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>3846.9999999999995</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44744</v>
       </c>
@@ -1447,37 +1530,40 @@
         <v>4442</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>61.771101794100169</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>1812434</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>304324.00000000006</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>4538</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>4893</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44751</v>
       </c>
@@ -1485,37 +1571,40 @@
         <v>5196</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>61.986568759356203</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>2513908</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>481089.99999999994</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>4997</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>5691</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44758</v>
       </c>
@@ -1523,37 +1612,40 @@
         <v>5695</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>61.629706136732437</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>2990266</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>472668</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>5123</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>4603</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1</v>
       </c>
-      <c r="K30">
-        <v>14</v>
-      </c>
       <c r="L30">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44765</v>
       </c>
@@ -1561,37 +1653,40 @@
         <v>5488</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>61.611255163190044</v>
       </c>
       <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>3229179</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>288844</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>4676</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>3230.9999999999995</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>7</v>
       </c>
-      <c r="K31">
-        <v>14</v>
-      </c>
       <c r="L31">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44772</v>
       </c>
@@ -1599,37 +1694,40 @@
         <v>5416.5</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>61.228333973936167</v>
       </c>
       <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>4277266</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>587222</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>4951</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>4023</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>7</v>
       </c>
-      <c r="K32">
-        <v>14</v>
-      </c>
       <c r="L32">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44779</v>
       </c>
@@ -1637,37 +1735,40 @@
         <v>5522.5</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>61.876535249328661</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>2712442</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>542567</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>5377</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>3689</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
       <c r="K33">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44786</v>
       </c>
@@ -1675,37 +1776,40 @@
         <v>5186</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>62.062682536457004</v>
       </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>2754891</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>491790.00000000012</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>5291</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>4375</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
       <c r="K34">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44793</v>
       </c>
@@ -1713,37 +1817,40 @@
         <v>5350</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>61.681387938831001</v>
       </c>
       <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>2830076.0000000005</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>510888</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>5340</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>4060.9999999999991</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44800</v>
       </c>
@@ -1751,37 +1858,40 @@
         <v>6038.5</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>61.445590844674257</v>
       </c>
       <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>1427803.0000000002</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>600291</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>5382</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>3780</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
       <c r="K36">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44807</v>
       </c>
@@ -1789,37 +1899,40 @@
         <v>5686</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>61.41391121016342</v>
       </c>
       <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>184496.99999999997</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>572289</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>4672</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>4072</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
       <c r="K37">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44814</v>
       </c>
@@ -1827,37 +1940,40 @@
         <v>4831.5</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>61.717484086447044</v>
       </c>
       <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>2849328</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>476542</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>4523</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>3321.9999999999995</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
       <c r="K38">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44821</v>
       </c>
@@ -1865,37 +1981,40 @@
         <v>4949.5</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>60.972357123264281</v>
       </c>
       <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>2375082</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>454265</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>5026</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>2308</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>1</v>
       </c>
-      <c r="K39">
-        <v>14</v>
-      </c>
       <c r="L39">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44828</v>
       </c>
@@ -1903,37 +2022,40 @@
         <v>4728.5</v>
       </c>
       <c r="C40">
+        <v>61.077559775359923</v>
+      </c>
+      <c r="D40">
         <v>1414</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>2305556.0000000005</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>432179.00000000006</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>4520</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>3085.9999999999995</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>4</v>
       </c>
-      <c r="K40">
-        <v>14</v>
-      </c>
       <c r="L40">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44835</v>
       </c>
@@ -1941,37 +2063,40 @@
         <v>4149</v>
       </c>
       <c r="C41">
+        <v>61.422822822246168</v>
+      </c>
+      <c r="D41">
         <v>861</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>2483877</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>354039</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>3878</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>2338</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
       <c r="K41">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44842</v>
       </c>
@@ -1979,37 +2104,40 @@
         <v>4185</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>61.417022531362981</v>
       </c>
       <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>2087615</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>350609.99999999994</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>4340</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>3162</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44849</v>
       </c>
@@ -2017,37 +2145,40 @@
         <v>5765.5</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>61.275389853778051</v>
       </c>
       <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>4839835</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>397274</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>5657</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>3628</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
       <c r="K43">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44856</v>
       </c>
@@ -2055,37 +2186,40 @@
         <v>6310.5</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>60.69247608406166</v>
       </c>
       <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
         <v>2020243.9999999998</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>464800</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>5209</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>4251</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
       <c r="K44">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44863</v>
       </c>
@@ -2093,37 +2227,40 @@
         <v>5496.5</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>61.301084368185009</v>
       </c>
       <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>2269000</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>430066</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>4910</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>5018.0000000000009</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>1</v>
       </c>
-      <c r="K45">
-        <v>14</v>
-      </c>
       <c r="L45">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44870</v>
       </c>
@@ -2131,37 +2268,40 @@
         <v>5410.5</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>61.386683550150053</v>
       </c>
       <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <v>3658115</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>374657</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>5158</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>5880.9999999999991</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>3</v>
       </c>
-      <c r="K46">
-        <v>14</v>
-      </c>
       <c r="L46">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44877</v>
       </c>
@@ -2169,37 +2309,40 @@
         <v>5452</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>60.678017117625579</v>
       </c>
       <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
         <v>2584769</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>450912.99999999994</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>5588</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>4452.9999999999991</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
       <c r="K47">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44884</v>
       </c>
@@ -2207,37 +2350,40 @@
         <v>5390</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>61.021822228821151</v>
       </c>
       <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>2885498.0000000005</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>523906.00000000012</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>5845</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>3526</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
       <c r="K48">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44891</v>
       </c>
@@ -2245,37 +2391,40 @@
         <v>5154</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>61.333631986839535</v>
       </c>
       <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
         <v>4164393.0000000005</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>555262</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>697.99999999999989</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>5384</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>3727.0000000000005</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
       <c r="K49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44898</v>
       </c>
@@ -2283,37 +2432,40 @@
         <v>5132</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>60.717034144182662</v>
       </c>
       <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
         <v>6262503.9999999991</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>509692.99999999988</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
       <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>353.00000000000006</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>5394</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>2887.0000000000005</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
       <c r="K50">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44905</v>
       </c>
@@ -2321,37 +2473,40 @@
         <v>5726</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>60.721873918485862</v>
       </c>
       <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
         <v>7308242.9999999991</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>469272.00000000006</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>58</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>5706</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>3346</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44912</v>
       </c>
@@ -2359,37 +2514,40 @@
         <v>5892</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>61.233847568920709</v>
       </c>
       <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>3626676.0000000005</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>443186.00000000006</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>578.57142857142844</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>88</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>5561</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>5022</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
       <c r="K52">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44919</v>
       </c>
@@ -2397,37 +2555,40 @@
         <v>6247</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>60.487478629311461</v>
       </c>
       <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>4048603</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>441503.00000000006</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>3471.4285714285711</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>23.999999999999996</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>5784</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>4709</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
       <c r="K53">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44926</v>
       </c>
@@ -2435,37 +2596,40 @@
         <v>6391.5</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>60.838159663423355</v>
       </c>
       <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
         <v>6508157.9999999991</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>469839.00000000006</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>578.57142857142844</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>5139</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>4305.9999999999991</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
       <c r="K54">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44933</v>
       </c>
@@ -2473,37 +2637,40 @@
         <v>6198</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>60.505367901040998</v>
       </c>
       <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>4564309</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>388413.99999999994</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>3471.4285714285711</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>5390</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>4403</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>1</v>
       </c>
-      <c r="K55">
-        <v>14</v>
-      </c>
       <c r="L55">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44940</v>
       </c>
@@ -2511,37 +2678,40 @@
         <v>6883</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>60.886876764767791</v>
       </c>
       <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
         <v>5336332</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>245070</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>578.57142857142844</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>6066</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>4457</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>7</v>
       </c>
-      <c r="K56">
-        <v>14</v>
-      </c>
       <c r="L56">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44947</v>
       </c>
@@ -2549,37 +2719,40 @@
         <v>8185.5</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>60.839320490431504</v>
       </c>
       <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
         <v>6066913.9999999991</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>453390.99999999994</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>3471.4285714285711</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>6586</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>4077.9999999999995</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>7</v>
       </c>
-      <c r="K57">
-        <v>14</v>
-      </c>
       <c r="L57">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44954</v>
       </c>
@@ -2587,37 +2760,40 @@
         <v>9595.5</v>
       </c>
       <c r="C58">
+        <v>60.391145507034587</v>
+      </c>
+      <c r="D58">
         <v>6009</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>7328668</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>634789.99999999988</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>6924</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>6395</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>7</v>
       </c>
-      <c r="K58">
-        <v>14</v>
-      </c>
       <c r="L58">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44961</v>
       </c>
@@ -2625,37 +2801,40 @@
         <v>9040.5</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>60.271826392900877</v>
       </c>
       <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
         <v>5190058</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>603149.99999999988</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>6254</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>4772</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>7</v>
       </c>
-      <c r="K59">
-        <v>14</v>
-      </c>
       <c r="L59">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44968</v>
       </c>
@@ -2663,37 +2842,40 @@
         <v>8819</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>59.931377754484608</v>
       </c>
       <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>8862969</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>625489.00000000012</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>6262</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>4146</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>7</v>
       </c>
-      <c r="K60">
-        <v>14</v>
-      </c>
       <c r="L60">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44975</v>
       </c>
@@ -2701,37 +2883,40 @@
         <v>9022.5</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>60.735979960500771</v>
       </c>
       <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>9124069</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>625065</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>6120</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>4195</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>7</v>
       </c>
-      <c r="K61">
-        <v>14</v>
-      </c>
       <c r="L61">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44982</v>
       </c>
@@ -2739,37 +2924,40 @@
         <v>8272</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>60.767634159435914</v>
       </c>
       <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>9309810.9999999981</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>628094.00000000012</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>5935</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>4858.9999999999991</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>7</v>
       </c>
-      <c r="K62">
-        <v>14</v>
-      </c>
       <c r="L62">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44989</v>
       </c>
@@ -2777,37 +2965,40 @@
         <v>7696</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>60.030329718409718</v>
       </c>
       <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
         <v>8287171</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>655432</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>5444</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>3354.0000000000005</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>7</v>
       </c>
-      <c r="K63">
-        <v>14</v>
-      </c>
       <c r="L63">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44996</v>
       </c>
@@ -2815,37 +3006,40 @@
         <v>7611</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>60.488127735162692</v>
       </c>
       <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
         <v>9445888</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>588654</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>5806</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>3650.0000000000005</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>7</v>
       </c>
-      <c r="K64">
-        <v>14</v>
-      </c>
       <c r="L64">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45003</v>
       </c>
@@ -2853,37 +3047,40 @@
         <v>7726.5</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>59.979889385889365</v>
       </c>
       <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
         <v>7316047</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>637316.99999999988</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>6156</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>3723.0000000000009</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
       <c r="K65">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45010</v>
       </c>
@@ -2891,37 +3088,40 @@
         <v>7439.5</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>59.814375173234275</v>
       </c>
       <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
         <v>3629125.0000000005</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>577195</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>6635</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>3734.0000000000005</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
       <c r="K66">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45017</v>
       </c>
@@ -2929,37 +3129,40 @@
         <v>7019.5</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>59.598317068831449</v>
       </c>
       <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
         <v>6068216</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>514283</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>6123</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>4380</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
       <c r="K67">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45024</v>
       </c>
@@ -2967,37 +3170,40 @@
         <v>6238</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>60.312333867709498</v>
       </c>
       <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
         <v>4397678</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>404107.99999999994</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>5438</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>3132.0000000000005</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
       <c r="K68">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45031</v>
       </c>
@@ -3005,37 +3211,40 @@
         <v>5588.5</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>60.219826099091378</v>
       </c>
       <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
         <v>3185716.0000000005</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>353639.00000000006</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <v>5218</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>4431.9999999999991</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
       <c r="K69">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L69">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45038</v>
       </c>
@@ -3043,37 +3252,40 @@
         <v>5348.5</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>60.419060028971934</v>
       </c>
       <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
         <v>3692850</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>368084</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>5055</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>4060.9999999999991</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
       <c r="K70">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L70">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45045</v>
       </c>
@@ -3081,37 +3293,40 @@
         <v>5435.5</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>59.625290174854008</v>
       </c>
       <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
         <v>5198383</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>293463</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>4771</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>4073.0000000000009</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
       <c r="K71">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45052</v>
       </c>
@@ -3119,37 +3334,40 @@
         <v>5316</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>59.549757737180407</v>
       </c>
       <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
         <v>3367451</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>251179</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>4605</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>3419.9999999999995</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
       <c r="K72">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45059</v>
       </c>
@@ -3157,37 +3375,40 @@
         <v>4929</v>
       </c>
       <c r="C73">
+        <v>60.288014804818744</v>
+      </c>
+      <c r="D73">
         <v>295385.00000000006</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>3413153.0000000005</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>392013.00000000006</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>4738</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>6024</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L73">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45066</v>
       </c>
@@ -3195,37 +3416,40 @@
         <v>5096</v>
       </c>
       <c r="C74">
+        <v>60.169023806083118</v>
+      </c>
+      <c r="D74">
         <v>483</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>2669548</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>417504</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
         <v>4768</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>7600.0000000000018</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>1</v>
       </c>
-      <c r="K74">
-        <v>14</v>
-      </c>
       <c r="L74">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45073</v>
       </c>
@@ -3233,37 +3457,40 @@
         <v>5203.5</v>
       </c>
       <c r="C75">
+        <v>59.2761806581915</v>
+      </c>
+      <c r="D75">
         <v>33039.000000000007</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>2587070</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>359884.99999999994</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>4934</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>6024</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>4</v>
       </c>
-      <c r="K75">
-        <v>14</v>
-      </c>
       <c r="L75">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>45080</v>
       </c>
@@ -3271,37 +3498,40 @@
         <v>4466.5</v>
       </c>
       <c r="C76">
+        <v>60.066545676713439</v>
+      </c>
+      <c r="D76">
         <v>3449.9999999999995</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>2831557</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>320285.99999999994</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>4273</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>3745</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
       <c r="K76">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45087</v>
       </c>
@@ -3309,37 +3539,40 @@
         <v>4535</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>59.881982830535982</v>
       </c>
       <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
         <v>3859643</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>501504</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>5179</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>4939</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
       <c r="K77">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L77">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45094</v>
       </c>
@@ -3347,37 +3580,40 @@
         <v>5530.5</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>59.579981456247275</v>
       </c>
       <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
         <v>3430554.9999999995</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>461413.99999999988</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>5350</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>4629</v>
       </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
       <c r="K78">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>45101</v>
       </c>
@@ -3385,37 +3621,40 @@
         <v>6179</v>
       </c>
       <c r="C79">
+        <v>59.909433178467879</v>
+      </c>
+      <c r="D79">
         <v>235210.00000000003</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>4101733.9999999995</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>281134.99999999994</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>5427</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>3347.0000000000005</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
       <c r="K79">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45108</v>
       </c>
@@ -3423,37 +3662,40 @@
         <v>5193.5</v>
       </c>
       <c r="C80">
+        <v>59.45056159092789</v>
+      </c>
+      <c r="D80">
         <v>96397</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>2246118</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>345669.00000000006</v>
       </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>4438</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>3571.0000000000005</v>
       </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
       <c r="K80">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45115</v>
       </c>
@@ -3461,37 +3703,40 @@
         <v>4519</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>59.422974513924899</v>
       </c>
       <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
         <v>1429052</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>371592</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
         <v>4974</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>3341</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
       <c r="K81">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L81">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>45122</v>
       </c>
@@ -3499,37 +3744,40 @@
         <v>5715.5</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>59.682525337594143</v>
       </c>
       <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
         <v>1675351</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>242448.99999999997</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>5397</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>9759.9999999999982</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
       <c r="K82">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L82">
+        <v>14</v>
+      </c>
+      <c r="M82">
         <v>25.428571428571423</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45129</v>
       </c>
@@ -3537,37 +3785,40 @@
         <v>8015.5</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>59.640146526798389</v>
       </c>
       <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
         <v>5332382.0000000009</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>225606.99999999997</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>8338</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>29764.999999999993</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>5</v>
       </c>
-      <c r="K83">
-        <v>14</v>
-      </c>
       <c r="L83">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="M83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45136</v>
       </c>
@@ -3575,37 +3826,40 @@
         <v>8470.5</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>58.965379707725511</v>
       </c>
       <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
         <v>8051351</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>364550.99999999994</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
         <v>5903</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>6836.9999999999991</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>7</v>
       </c>
-      <c r="K84">
-        <v>14</v>
-      </c>
       <c r="L84">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="M84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>45143</v>
       </c>
@@ -3613,37 +3867,40 @@
         <v>7421.5</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>59.054710171208477</v>
       </c>
       <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
         <v>9536401</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>401841.00000000006</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
         <v>6519</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>3951.9999999999995</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>7</v>
       </c>
-      <c r="K85">
-        <v>14</v>
-      </c>
       <c r="L85">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="M85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>45150</v>
       </c>
@@ -3651,37 +3908,40 @@
         <v>7190.5</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>59.34941407078481</v>
       </c>
       <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
         <v>6293242</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>403844</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
       <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>18</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>6144</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>3871</v>
       </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
       <c r="K86">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="M86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45157</v>
       </c>
@@ -3689,37 +3949,40 @@
         <v>6684</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>58.939769231193907</v>
       </c>
       <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
         <v>6657754.9999999991</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>379484.99999999994</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
         <v>6238</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>4396.9999999999991</v>
       </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
       <c r="K87">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="M87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45164</v>
       </c>
@@ -3727,37 +3990,40 @@
         <v>6259</v>
       </c>
       <c r="C88">
+        <v>58.735734295613923</v>
+      </c>
+      <c r="D88">
         <v>67723.000000000015</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>4400266</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>328825</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>5389</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>3922</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
       <c r="K88">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="M88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>45171</v>
       </c>
@@ -3765,37 +4031,40 @@
         <v>6300.5</v>
       </c>
       <c r="C89">
+        <v>58.92177779587599</v>
+      </c>
+      <c r="D89">
         <v>526555.99999999988</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>3952303</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>353797</v>
       </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <v>5331</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>3281.9999999999995</v>
       </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
       <c r="K89">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L89">
+        <v>14</v>
+      </c>
+      <c r="M89">
         <v>23.142857142857142</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>45178</v>
       </c>
@@ -3803,37 +4072,40 @@
         <v>6401</v>
       </c>
       <c r="C90">
+        <v>59.169264624919641</v>
+      </c>
+      <c r="D90">
         <v>239966.00000000006</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>1553495</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>298050</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
         <v>5234</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>3454.9999999999995</v>
       </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
       <c r="K90">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L90">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>45185</v>
       </c>
@@ -3841,37 +4113,40 @@
         <v>6067</v>
       </c>
       <c r="C91">
+        <v>58.514507531969542</v>
+      </c>
+      <c r="D91">
         <v>239470.99999999994</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>2093310</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>278154</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>952</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
         <v>5210</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>3195.0000000000005</v>
       </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
       <c r="K91">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>45192</v>
       </c>
@@ -3879,37 +4154,40 @@
         <v>5628</v>
       </c>
       <c r="C92">
+        <v>58.612178881962912</v>
+      </c>
+      <c r="D92">
         <v>187211.00000000003</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>3140858</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>210852</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>1085</v>
       </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
         <v>4864</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>3577</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>1</v>
       </c>
-      <c r="K92">
-        <v>14</v>
-      </c>
       <c r="L92">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45199</v>
       </c>
@@ -3917,37 +4195,40 @@
         <v>5513.5</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>59.285733083066013</v>
       </c>
       <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
         <v>4223775</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>290573</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>917.00000000000023</v>
       </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
       <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
         <v>4710</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>3349.0000000000005</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>4</v>
       </c>
-      <c r="K93">
-        <v>14</v>
-      </c>
       <c r="L93">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>45206</v>
       </c>
@@ -3955,37 +4236,40 @@
         <v>5660.5</v>
       </c>
       <c r="C94">
+        <v>58.722025844116025</v>
+      </c>
+      <c r="D94">
         <v>53902.000000000007</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>4048315</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>326755.00000000006</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
         <v>4673</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>3510.0000000000005</v>
       </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
       <c r="K94">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L94">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>45213</v>
       </c>
@@ -3993,37 +4277,40 @@
         <v>5190</v>
       </c>
       <c r="C95">
+        <v>58.69725173149542</v>
+      </c>
+      <c r="D95">
         <v>36288.999999999993</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>2331651.0000000005</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>352118</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
       <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>15.999999999999996</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>4247</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>2616.9999999999995</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
       <c r="K95">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L95">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M95">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>45220</v>
       </c>
@@ -4031,37 +4318,40 @@
         <v>4625.5</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>58.728606572772449</v>
       </c>
       <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
         <v>1948637</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>383035.00000000006</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>3977</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>3421</v>
       </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
       <c r="K96">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>45227</v>
       </c>
@@ -4069,37 +4359,40 @@
         <v>4886</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>58.837887895431408</v>
       </c>
       <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
         <v>2061975</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>367028.99999999994</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <v>3581</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>3786.0000000000009</v>
       </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
       <c r="K97">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L97">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>45234</v>
       </c>
@@ -4107,37 +4400,40 @@
         <v>5269</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>58.497330832424922</v>
       </c>
       <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
         <v>3499617.9999999995</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>387123.00000000006</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>1232</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>11</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>4184</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>1988</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>4</v>
       </c>
-      <c r="K98">
-        <v>14</v>
-      </c>
       <c r="L98">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>45241</v>
       </c>
@@ -4145,37 +4441,40 @@
         <v>4970</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>58.229639404827488</v>
       </c>
       <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
         <v>1977380</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>336459.99999999994</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>1085</v>
       </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <v>4071</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>1917</v>
       </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
       <c r="K99">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>45248</v>
       </c>
@@ -4183,37 +4482,40 @@
         <v>4692.5</v>
       </c>
       <c r="C100">
+        <v>58.655968003892987</v>
+      </c>
+      <c r="D100">
         <v>309008.99999999994</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>2469271.0000000005</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>333356.00000000006</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>1176</v>
       </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>4631</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>1772.9999999999998</v>
       </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
       <c r="K100">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L100">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>45255</v>
       </c>
@@ -4221,37 +4523,40 @@
         <v>4545</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>58.603317161432031</v>
       </c>
       <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>1639001.9999999998</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>311775.00000000006</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>4624</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>1791</v>
       </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
       <c r="K101">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L101">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>45262</v>
       </c>
@@ -4259,37 +4564,40 @@
         <v>4511</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>58.592953491679999</v>
       </c>
       <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
         <v>2806457</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>299950</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>63</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>4964</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>1617</v>
       </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
       <c r="K102">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L102">
         <v>14</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M102">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>45269</v>
       </c>
@@ -4297,37 +4605,40 @@
         <v>4610.5</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>58.446413307596849</v>
       </c>
       <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
         <v>3658934.0000000005</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>281190</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>203</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
       <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
         <v>3937</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>1440.0000000000002</v>
       </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
       <c r="K103">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L103">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M103">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>45276</v>
       </c>
@@ -4335,37 +4646,40 @@
         <v>4816.5</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>58.679306233839256</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
         <v>3304492</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>334226</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>35</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>19.000000000000004</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>4148</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>1542.9999999999998</v>
       </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
       <c r="K104">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="M104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>45283</v>
       </c>
@@ -4373,37 +4687,40 @@
         <v>4964</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>57.977438223511157</v>
       </c>
       <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
         <v>3307819</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>284148</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>1036</v>
       </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
       <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
         <v>4354</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>2787.0000000000005</v>
       </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
       <c r="K105">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="M105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>45290</v>
       </c>
@@ -4411,37 +4728,40 @@
         <v>5557</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>58.030867954648969</v>
       </c>
       <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
         <v>4848550</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>255181.99999999997</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>931</v>
       </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
       <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
         <v>4486</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>6351.0000000000009</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>1</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>27.714285714285719</v>
       </c>
-      <c r="L106">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M106">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45297</v>
       </c>
@@ -4449,37 +4769,40 @@
         <v>6482</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>58.632905635110525</v>
       </c>
       <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
         <v>5458484</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>288503</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>1652.0000000000002</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>11.999999999999998</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>4490</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>9429</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>7</v>
       </c>
-      <c r="K107">
-        <v>30</v>
-      </c>
       <c r="L107">
         <v>30</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>45304</v>
       </c>
@@ -4487,37 +4810,40 @@
         <v>7316</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>57.831931779092336</v>
       </c>
       <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
         <v>6357119.0000000009</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>253554.99999999994</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>231</v>
       </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
       <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
         <v>4700</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>9332</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>7</v>
       </c>
-      <c r="K108">
-        <v>30</v>
-      </c>
       <c r="L108">
         <v>30</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M108">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>45311</v>
       </c>
@@ -4525,37 +4851,40 @@
         <v>7788</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>58.392203460270856</v>
       </c>
       <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
         <v>6518173</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>241372</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>167.99999999999997</v>
       </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
         <v>4994</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>20557</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>7</v>
       </c>
-      <c r="K109">
-        <v>30</v>
-      </c>
       <c r="L109">
         <v>30</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M109">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>45318</v>
       </c>
@@ -4563,37 +4892,40 @@
         <v>8943</v>
       </c>
       <c r="C110">
+        <v>58.296949797009127</v>
+      </c>
+      <c r="D110">
         <v>70547.999999999985</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>8244001</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>344141.99999999994</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>41.999999999999993</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>697.99999999999989</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>6100</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>31100.000000000007</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>7</v>
       </c>
-      <c r="K110">
-        <v>30</v>
-      </c>
       <c r="L110">
         <v>30</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M110">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>45325</v>
       </c>
@@ -4601,37 +4933,40 @@
         <v>10163.5</v>
       </c>
       <c r="C111">
+        <v>58.155584023066204</v>
+      </c>
+      <c r="D111">
         <v>73613</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>8323306</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>403872.99999999994</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>27.999999999999993</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>353.00000000000006</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>6005</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>30422</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>7</v>
       </c>
-      <c r="K111">
-        <v>30</v>
-      </c>
       <c r="L111">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M111">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>45332</v>
       </c>
@@ -4639,37 +4974,40 @@
         <v>8688.5</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>58.403826999259287</v>
       </c>
       <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
         <v>8296581</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>370463.00000000006</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>126</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>58</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>4956</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>22407</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>7</v>
       </c>
-      <c r="K112">
-        <v>30</v>
-      </c>
       <c r="L112">
         <v>30</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>45339</v>
       </c>
@@ -4677,37 +5015,40 @@
         <v>7410.5</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>57.692990349448756</v>
       </c>
       <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
         <v>8659795</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>378336.99999999994</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>154</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>88</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>5330</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>20928</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>7</v>
       </c>
-      <c r="K113">
-        <v>30</v>
-      </c>
       <c r="L113">
         <v>30</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M113">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>45346</v>
       </c>
@@ -4715,37 +5056,40 @@
         <v>7131</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>58.36073313363697</v>
       </c>
       <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
         <v>7436218</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>348166</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>140</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>23.999999999999996</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>5009</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>20051.999999999996</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>7</v>
       </c>
-      <c r="K114">
-        <v>30</v>
-      </c>
       <c r="L114">
         <v>30</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M114">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>45353</v>
       </c>
@@ -4753,37 +5097,40 @@
         <v>6141.5</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>57.973191930871657</v>
       </c>
       <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
         <v>7821529</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>296754</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>55.999999999999986</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>35</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>4717</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>7671.0000000000009</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>7</v>
       </c>
-      <c r="K115">
-        <v>30</v>
-      </c>
       <c r="L115">
         <v>30</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M115">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>45360</v>
       </c>
@@ -4791,37 +5138,40 @@
         <v>5721</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>57.505763026586536</v>
       </c>
       <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
         <v>7018797.9999999991</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>299693</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>41.999999999999993</v>
       </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
       <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
         <v>5073</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>7237.0000000000009</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>7</v>
       </c>
-      <c r="K116">
-        <v>30</v>
-      </c>
       <c r="L116">
         <v>30</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M116">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>45367</v>
       </c>
@@ -4829,37 +5179,40 @@
         <v>5603.5</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>58.06901531580295</v>
       </c>
       <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
         <v>5784112</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>286411.00000000006</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>55.999999999999986</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>153</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>4919</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>7845.0000000000018</v>
       </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
       <c r="K117">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L117">
         <v>30</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M117">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>45374</v>
       </c>
@@ -4867,37 +5220,40 @@
         <v>5442</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>57.682368771510284</v>
       </c>
       <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
         <v>4644510</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>365442</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>1379</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>76.000000000000014</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>4774</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>6724</v>
       </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
       <c r="K118">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L118">
         <v>30</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M118">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>45381</v>
       </c>
@@ -4905,37 +5261,40 @@
         <v>6052</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>58.043093723237106</v>
       </c>
       <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
         <v>6082423</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>400756.00000000006</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>1806</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>453</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>5079</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>6701.0000000000009</v>
       </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
       <c r="K119">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L119">
         <v>30</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M119">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>45388</v>
       </c>
@@ -4943,37 +5302,40 @@
         <v>6270.5</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>57.665179605066449</v>
       </c>
       <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
         <v>5785793</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>441653.00000000006</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>1287.9999999999998</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <v>5054</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>5627.0000000000009</v>
       </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
       <c r="K120">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L120">
         <v>30</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M120">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>45395</v>
       </c>
@@ -4981,37 +5343,40 @@
         <v>6405</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>57.622177716718987</v>
       </c>
       <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
         <v>6162515.0000000009</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>376155</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>119</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>80</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>5055</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>5089.9999999999991</v>
       </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
       <c r="K121">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L121">
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>45402</v>
       </c>
@@ -5019,37 +5384,40 @@
         <v>6031</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>57.778948024786686</v>
       </c>
       <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
         <v>4007854.9999999995</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>421372</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>259</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>10</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>5090</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>4175</v>
       </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
       <c r="K122">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L122">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M122">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>45409</v>
       </c>
@@ -5057,37 +5425,40 @@
         <v>5145</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>57.940134793717966</v>
       </c>
       <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
         <v>3392093</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>381104</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>321.99999999999994</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>52.000000000000007</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>4146</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>6649.0000000000009</v>
       </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
       <c r="K123">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L123">
         <v>30</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M123">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>45416</v>
       </c>
@@ -5095,37 +5466,40 @@
         <v>4562</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>57.862536554780988</v>
       </c>
       <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
         <v>3044434</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>359447.99999999994</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>419.99999999999994</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>117.00000000000003</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>4898</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>5326.0000000000009</v>
       </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
       <c r="K124">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="M124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>45423</v>
       </c>
@@ -5133,37 +5507,40 @@
         <v>4310.5</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>57.003163985062066</v>
       </c>
       <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
         <v>2191645.0000000005</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>342873.00000000006</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>308</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>29</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>4815</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>6996</v>
       </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
       <c r="K125">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L125">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="M125">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>45430</v>
       </c>
@@ -5171,37 +5548,40 @@
         <v>4726.5</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>57.616761445025723</v>
       </c>
       <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
         <v>1880383</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>527422</v>
       </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
         <v>4858</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>5744.9999999999991</v>
       </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
       <c r="K126">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L126">
+        <v>30</v>
+      </c>
+      <c r="M126">
         <v>23.142857142857142</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>45437</v>
       </c>
@@ -5209,37 +5589,40 @@
         <v>5466</v>
       </c>
       <c r="C127">
+        <v>57.678715422052754</v>
+      </c>
+      <c r="D127">
         <v>3419.0000000000005</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>775007.99999999988</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>513187</v>
       </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>5520</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>9038</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>1</v>
       </c>
-      <c r="K127">
-        <v>30</v>
-      </c>
       <c r="L127">
         <v>30</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M127">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>45444</v>
       </c>
@@ -5247,37 +5630,40 @@
         <v>6089</v>
       </c>
       <c r="C128">
+        <v>57.160453400908359</v>
+      </c>
+      <c r="D128">
         <v>17668</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>692345</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>558415</v>
       </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
         <v>5322</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>6922.0000000000009</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>4</v>
       </c>
-      <c r="K128">
-        <v>30</v>
-      </c>
       <c r="L128">
         <v>30</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M128">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>45451</v>
       </c>
@@ -5285,37 +5671,40 @@
         <v>5363.5</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>57.729558856919866</v>
       </c>
       <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
         <v>474536</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>409320.00000000006</v>
       </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
         <v>5099</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>3808</v>
       </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
       <c r="K129">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L129">
         <v>30</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>45458</v>
       </c>
@@ -5323,37 +5712,40 @@
         <v>4548.5</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>56.927636491560143</v>
       </c>
       <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
         <v>515872</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>351043</v>
       </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
         <v>4962</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>7979.0000000000009</v>
       </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
       <c r="K130">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L130">
         <v>30</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>45465</v>
       </c>
@@ -5361,37 +5753,40 @@
         <v>4522.5</v>
       </c>
       <c r="C131">
+        <v>57.390755908809432</v>
+      </c>
+      <c r="D131">
         <v>67415.000000000015</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>955523</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>250159</v>
       </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
       <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
         <v>20</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>4488</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>5096</v>
       </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
       <c r="K131">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L131">
         <v>30</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M131">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>45472</v>
       </c>
@@ -5399,37 +5794,40 @@
         <v>4736.5</v>
       </c>
       <c r="C132">
+        <v>57.377948479956984</v>
+      </c>
+      <c r="D132">
         <v>15079</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>2954291</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>349559</v>
       </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
       <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
         <v>25.000000000000004</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>4549</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>9976.9999999999982</v>
       </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
       <c r="K132">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L132">
         <v>30</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M132">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>45479</v>
       </c>
@@ -5437,37 +5835,40 @@
         <v>4740</v>
       </c>
       <c r="C133">
+        <v>57.182453779455322</v>
+      </c>
+      <c r="D133">
         <v>73485</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>925426</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>416913</v>
       </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
         <v>4799</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>12279.999999999998</v>
       </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
       <c r="K133">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L133">
         <v>30</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M133">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>45486</v>
       </c>
@@ -5475,37 +5876,40 @@
         <v>4991.5</v>
       </c>
       <c r="C134">
+        <v>57.553884058108771</v>
+      </c>
+      <c r="D134">
         <v>14546</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>1077514.0000000002</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>486052.99999999994</v>
       </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>4764</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>27889.000000000004</v>
       </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
       <c r="K134">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L134">
         <v>30</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>45493</v>
       </c>
@@ -5513,37 +5917,40 @@
         <v>5069</v>
       </c>
       <c r="C135">
+        <v>57.148514219113991</v>
+      </c>
+      <c r="D135">
         <v>34016</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>1146811</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>381731</v>
       </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
       <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
         <v>74.999999999999986</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>4296</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>9097</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>5</v>
       </c>
-      <c r="K135">
-        <v>30</v>
-      </c>
       <c r="L135">
         <v>30</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M135">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>45500</v>
       </c>
@@ -5551,37 +5958,40 @@
         <v>5138</v>
       </c>
       <c r="C136">
+        <v>56.961454389825676</v>
+      </c>
+      <c r="D136">
         <v>43119.000000000007</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>2036127</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>555306</v>
       </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
       <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
         <v>134.99999999999997</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>4904</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>11044.000000000002</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>7</v>
       </c>
-      <c r="K136">
-        <v>30</v>
-      </c>
       <c r="L136">
         <v>30</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M136">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>45507</v>
       </c>
@@ -5589,37 +5999,40 @@
         <v>5756</v>
       </c>
       <c r="C137">
+        <v>56.976978420557607</v>
+      </c>
+      <c r="D137">
         <v>82602.999999999985</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>2395790</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>638261.99999999988</v>
       </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
         <v>4965</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>6899</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>7</v>
       </c>
-      <c r="K137">
-        <v>30</v>
-      </c>
       <c r="L137">
         <v>30</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M137">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>45514</v>
       </c>
@@ -5627,37 +6040,40 @@
         <v>5535</v>
       </c>
       <c r="C138">
+        <v>56.986325641485053</v>
+      </c>
+      <c r="D138">
         <v>20032</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>1827482.9999999998</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>535413</v>
       </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
         <v>4920</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>9131</v>
       </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
       <c r="K138">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L138">
+        <v>30</v>
+      </c>
+      <c r="M138">
         <v>27.714285714285719</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>45521</v>
       </c>
@@ -5665,37 +6081,40 @@
         <v>5155.5</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>57.057661851296906</v>
       </c>
       <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
         <v>1151869</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>489747.00000000006</v>
       </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
       <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
         <v>109</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>5348</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>7101</v>
       </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
       <c r="K139">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="M139">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>45528</v>
       </c>
@@ -5703,37 +6122,40 @@
         <v>5573</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>56.919578238286739</v>
       </c>
       <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
         <v>1099039</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>484309</v>
       </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
       <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
         <v>138.00000000000003</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>5021</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>5807</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
       <c r="K140">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L140">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="M140">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>45535</v>
       </c>
@@ -5741,37 +6163,40 @@
         <v>5267</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>56.676565934657653</v>
       </c>
       <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
         <v>1782943</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>482777.99999999988</v>
       </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>4279</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>5180.9999999999991</v>
       </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
       <c r="K141">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L141">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="M141">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>45542</v>
       </c>
@@ -5779,37 +6204,40 @@
         <v>4424</v>
       </c>
       <c r="C142">
+        <v>56.33061495528122</v>
+      </c>
+      <c r="D142">
         <v>30376.000000000004</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>1572853</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>697618.00000000012</v>
       </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
         <v>4311</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>5331</v>
       </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
       <c r="K142">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L142">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="M142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>45549</v>
       </c>
@@ -5817,37 +6245,40 @@
         <v>4733.5</v>
       </c>
       <c r="C143">
+        <v>56.905586251016523</v>
+      </c>
+      <c r="D143">
         <v>17178</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>3138881.0000000005</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>707923</v>
       </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
         <v>3592</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>5324.9999999999991</v>
       </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
       <c r="K143">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L143">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="M143">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>45556</v>
       </c>
@@ -5855,37 +6286,40 @@
         <v>4314.5</v>
       </c>
       <c r="C144">
+        <v>56.218142589882653</v>
+      </c>
+      <c r="D144">
         <v>66046.999999999985</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>1892092</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>414441.00000000006</v>
       </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>3354</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>3491</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>1</v>
       </c>
-      <c r="K144">
-        <v>30</v>
-      </c>
       <c r="L144">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="M144">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>45563</v>
       </c>
@@ -5893,37 +6327,40 @@
         <v>3794</v>
       </c>
       <c r="C145">
+        <v>56.66914592801411</v>
+      </c>
+      <c r="D145">
         <v>23451.000000000004</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>509869</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>275621</v>
       </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
         <v>3131</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>8754</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>4</v>
       </c>
-      <c r="K145">
-        <v>30</v>
-      </c>
       <c r="L145">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="M145">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>45570</v>
       </c>
@@ -5931,37 +6368,40 @@
         <v>4326</v>
       </c>
       <c r="C146">
+        <v>56.028855951266316</v>
+      </c>
+      <c r="D146">
         <v>25343.999999999996</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>748276</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>316939.99999999994</v>
       </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
         <v>3044</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>3933.0000000000009</v>
       </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
       <c r="K146">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L146">
+        <v>30</v>
+      </c>
+      <c r="M146">
         <v>27.714285714285719</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>45577</v>
       </c>
@@ -5969,37 +6409,40 @@
         <v>4649.5</v>
       </c>
       <c r="C147">
+        <v>56.561007119838131</v>
+      </c>
+      <c r="D147">
         <v>20701</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>1009906</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>409803.00000000006</v>
       </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
       <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
         <v>336</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>2854</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>4188</v>
       </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
       <c r="K147">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L147">
         <v>30</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M147">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>45584</v>
       </c>
@@ -6007,37 +6450,40 @@
         <v>5421</v>
       </c>
       <c r="C148">
+        <v>56.317633338774272</v>
+      </c>
+      <c r="D148">
         <v>28600</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>1817863</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>418371.00000000006</v>
       </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
         <v>2843</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>5093.9999999999991</v>
       </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
       <c r="K148">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L148">
         <v>30</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M148">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>45591</v>
       </c>
@@ -6045,37 +6491,40 @@
         <v>5458</v>
       </c>
       <c r="C149">
+        <v>55.907476046601545</v>
+      </c>
+      <c r="D149">
         <v>29977.999999999996</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>1310500</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>396923.00000000006</v>
       </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
         <v>2377</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>3258.0000000000005</v>
       </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
       <c r="K149">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L149">
         <v>30</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M149">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>45598</v>
       </c>
@@ -6083,37 +6532,40 @@
         <v>4669</v>
       </c>
       <c r="C150">
+        <v>55.857044571112567</v>
+      </c>
+      <c r="D150">
         <v>14894.000000000002</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>1162218</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>462402</v>
       </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
         <v>2193</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>6443</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>1</v>
       </c>
-      <c r="K150">
-        <v>30</v>
-      </c>
       <c r="L150">
         <v>30</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>45605</v>
       </c>
@@ -6121,37 +6573,40 @@
         <v>5178.5</v>
       </c>
       <c r="C151">
+        <v>55.932266308512119</v>
+      </c>
+      <c r="D151">
         <v>13602</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>783682</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>512561</v>
       </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
         <v>2339</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>5687</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>3</v>
       </c>
-      <c r="K151">
-        <v>30</v>
-      </c>
       <c r="L151">
         <v>30</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M151">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>45612</v>
       </c>
@@ -6159,37 +6614,40 @@
         <v>5890.5</v>
       </c>
       <c r="C152">
+        <v>56.256851213298383</v>
+      </c>
+      <c r="D152">
         <v>12833.999999999998</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>1019131.9999999999</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>579510</v>
       </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
       <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
         <v>88.999999999999986</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>2762</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>5399.0000000000009</v>
       </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
       <c r="K152">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L152">
         <v>30</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M152">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>45619</v>
       </c>
@@ -6197,157 +6655,165 @@
         <v>5371</v>
       </c>
       <c r="C153">
+        <v>55.963374539447067</v>
+      </c>
+      <c r="D153">
         <v>8994</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>853116.00000000012</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>387691</v>
       </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
       <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
         <v>43.000000000000007</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>2320</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>7021.9999999999991</v>
       </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
       <c r="K153">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L153">
         <v>30</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M153">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>45626</v>
       </c>
       <c r="B154">
-        <f t="shared" ref="B154:L154" si="0">B99</f>
+        <f t="shared" ref="B154:M154" si="0">B99</f>
         <v>4970</v>
       </c>
       <c r="C154">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55.825592714487989</v>
       </c>
       <c r="D154">
         <f t="shared" si="0"/>
-        <v>1977380</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <f t="shared" si="0"/>
-        <v>336459.99999999994</v>
+        <v>1977380</v>
       </c>
       <c r="F154">
         <f t="shared" si="0"/>
-        <v>1085</v>
+        <v>336459.99999999994</v>
       </c>
       <c r="G154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1085</v>
       </c>
       <c r="H154">
         <f t="shared" si="0"/>
-        <v>4071</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <f t="shared" si="0"/>
-        <v>1917</v>
+        <v>4071</v>
       </c>
       <c r="J154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1917</v>
       </c>
       <c r="K154">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L154">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M154">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>45633</v>
       </c>
       <c r="B155">
-        <f t="shared" ref="B155:L155" si="1">B100</f>
+        <f t="shared" ref="B155:M155" si="1">B100</f>
         <v>4692.5</v>
       </c>
       <c r="C155">
+        <v>56.346265592234118</v>
+      </c>
+      <c r="D155">
         <f t="shared" si="1"/>
         <v>309008.99999999994</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <f t="shared" si="1"/>
         <v>2469271.0000000005</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <f t="shared" si="1"/>
         <v>333356.00000000006</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <f t="shared" si="1"/>
         <v>1176</v>
       </c>
-      <c r="G155">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="H155">
         <f t="shared" si="1"/>
-        <v>4631</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <f t="shared" si="1"/>
-        <v>1772.9999999999998</v>
+        <v>4631</v>
       </c>
       <c r="J155">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1772.9999999999998</v>
       </c>
       <c r="K155">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L155">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M155">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>45640</v>
       </c>
       <c r="B156">
-        <f t="shared" ref="B156:L156" si="2">B101</f>
+        <f t="shared" ref="B156:M156" si="2">B101</f>
         <v>4545</v>
       </c>
       <c r="C156">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>55.850303167378136</v>
       </c>
       <c r="D156">
         <f t="shared" si="2"/>
-        <v>1639001.9999999998</v>
+        <v>0</v>
       </c>
       <c r="E156">
         <f t="shared" si="2"/>
-        <v>311775.00000000006</v>
+        <v>1639001.9999999998</v>
       </c>
       <c r="F156">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>311775.00000000006</v>
       </c>
       <c r="G156">
         <f t="shared" si="2"/>
@@ -6355,127 +6821,137 @@
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>4624</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <f t="shared" si="2"/>
-        <v>1791</v>
+        <v>4624</v>
       </c>
       <c r="J156">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1791</v>
       </c>
       <c r="K156">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L156">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M156">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>45647</v>
       </c>
       <c r="B157">
-        <f t="shared" ref="B157:L157" si="3">B102</f>
+        <f t="shared" ref="B157:M157" si="3">B102</f>
         <v>4511</v>
       </c>
       <c r="C157">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>56.123988921696764</v>
       </c>
       <c r="D157">
         <f t="shared" si="3"/>
-        <v>2806457</v>
+        <v>0</v>
       </c>
       <c r="E157">
         <f t="shared" si="3"/>
-        <v>299950</v>
+        <v>2806457</v>
       </c>
       <c r="F157">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>299950</v>
       </c>
       <c r="G157">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H157">
         <f t="shared" si="3"/>
-        <v>4964</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <f t="shared" si="3"/>
-        <v>1617</v>
+        <v>4964</v>
       </c>
       <c r="J157">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1617</v>
       </c>
       <c r="K157">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L157">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M157">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>45654</v>
       </c>
       <c r="B158">
-        <f t="shared" ref="B158:L158" si="4">B103</f>
+        <f t="shared" ref="B158:M158" si="4">B103</f>
         <v>4610.5</v>
       </c>
       <c r="C158">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>55.718216666699611</v>
       </c>
       <c r="D158">
         <f t="shared" si="4"/>
-        <v>3658934.0000000005</v>
+        <v>0</v>
       </c>
       <c r="E158">
         <f t="shared" si="4"/>
-        <v>281190</v>
+        <v>3658934.0000000005</v>
       </c>
       <c r="F158">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>281190</v>
       </c>
       <c r="G158">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="H158">
         <f t="shared" si="4"/>
-        <v>3937</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <f t="shared" si="4"/>
-        <v>1440.0000000000002</v>
+        <v>3937</v>
       </c>
       <c r="J158">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1440.0000000000002</v>
       </c>
       <c r="K158">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L158">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M158">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
@@ -6502,16 +6978,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="69a596bc-031e-41ac-ae84-f05cb287cc7b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570E1E51A1737145AAB966C825221BB7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faec5e91fb5c54cf7c8251edff54a9e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69a596bc-031e-41ac-ae84-f05cb287cc7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbe5ba1719807d01b7b22365bb53dc1c" ns2:_="">
     <xsd:import namespace="69a596bc-031e-41ac-ae84-f05cb287cc7b"/>
@@ -6695,6 +7161,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="69a596bc-031e-41ac-ae84-f05cb287cc7b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC9304D8-F940-4D41-97B6-AF549727ADFF}">
   <ds:schemaRefs>
@@ -6704,18 +7180,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2210AFA-B0CA-4985-908E-DD0ECB22ABBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a3ff3462-d6b4-4ac2-90da-7737b073607f"/>
-    <ds:schemaRef ds:uri="3f36e9a1-46e8-4e92-9903-f17183bc56e9"/>
-    <ds:schemaRef ds:uri="69a596bc-031e-41ac-ae84-f05cb287cc7b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A33CBB9-27DE-4296-97E9-454D546F1E60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6731,4 +7195,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2210AFA-B0CA-4985-908E-DD0ECB22ABBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a3ff3462-d6b4-4ac2-90da-7737b073607f"/>
+    <ds:schemaRef ds:uri="3f36e9a1-46e8-4e92-9903-f17183bc56e9"/>
+    <ds:schemaRef ds:uri="69a596bc-031e-41ac-ae84-f05cb287cc7b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>